--- a/11_Cumulative_Values_in_Pivot_Tables_Working.xlsx
+++ b/11_Cumulative_Values_in_Pivot_Tables_Working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__Fun_X_Excel_Channel_Videos\XtremeDataScience\Excel Pivots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\YT_Excel_Pivot_Table_Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC6C068-12B3-4E39-97B0-8BD0EA3B2405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348399FC-8883-429C-8B43-78EE0B7DD04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t xml:space="preserve">Questions to be answered: </t>
   </si>
@@ -77,12 +77,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Excel Pivot Table Playground - Calculated Fields</t>
-  </si>
-  <si>
-    <t>1/ Calculated Fields</t>
-  </si>
-  <si>
     <t>Conversion</t>
   </si>
   <si>
@@ -98,25 +92,25 @@
     <t>www.xyz.com</t>
   </si>
   <si>
-    <t>1/ Find the Conversion per Month by Domain</t>
-  </si>
-  <si>
-    <t>3/ List Formulas</t>
-  </si>
-  <si>
-    <t>2/ Calculating right the right average</t>
-  </si>
-  <si>
-    <t>2/ Find the Conversion per Year by Domain</t>
-  </si>
-  <si>
-    <t>Conv%</t>
-  </si>
-  <si>
-    <t>Case 1</t>
-  </si>
-  <si>
-    <t>Case 2</t>
+    <t>Leads</t>
+  </si>
+  <si>
+    <t>2/ Also, check is we are meeting the Leads Percentage Target</t>
+  </si>
+  <si>
+    <t>1/ Cumulative Values</t>
+  </si>
+  <si>
+    <t>2/ Calculating Cumulative Percentage</t>
+  </si>
+  <si>
+    <t>Excel Pivot Table Playground - Cumulative Values</t>
+  </si>
+  <si>
+    <t>Yearly Target : 50%</t>
+  </si>
+  <si>
+    <t>1/ Find the Cumulative Leads generated for each domain</t>
   </si>
 </sst>
 </file>
@@ -127,7 +121,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +179,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,15 +239,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -255,16 +252,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_adjustable bins" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -275,7 +275,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -285,12 +284,22 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -393,15 +402,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal_adjustable bins">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{880AAD59-F84A-4F51-ADF6-EA9628BA8B1A}" name="Table132" displayName="Table132" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal_adjustable bins">
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{24CED88D-B280-4CB4-98DF-460DDCF1111E}" name="Domain" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website_Visits" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{674EEC13-071C-486A-A25F-068CB8678396}" name="Conversion" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7201DA6D-9C1C-479F-B0DE-6D54DA4681D0}" name="Conv%" dataDxfId="0" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B56AEFE7-DE34-49C1-9ECE-1E954010E222}" name="Domain" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{59B3CE04-E952-4E2F-8058-540B8032A92C}" name="Month" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{08ACC9EB-51DF-448F-BD11-4982ADA70AD2}" name="Website_Visits" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{ADD4EAA2-7345-44DD-B20F-941DDA2FCB1D}" name="Leads" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{985C3E29-CAF9-4BD5-ABE6-8DC26F5DCC3F}" name="Conversion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5577446-E0DE-4525-ACE7-9421F2773448}">
-  <dimension ref="B1:D11"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,46 +747,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -792,476 +799,447 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>23075</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8537.75</v>
+      </c>
+      <c r="E2" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>24194</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13064.76</v>
+      </c>
+      <c r="E3" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>24674</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9129.3799999999992</v>
+      </c>
+      <c r="E4" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>22122</v>
+      </c>
+      <c r="D5" s="4">
+        <v>15264.179999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25061</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11277.45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>24300</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11178</v>
+      </c>
+      <c r="E7" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>25810</v>
+      </c>
+      <c r="D8" s="4">
+        <v>18841.3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>23705</v>
+      </c>
+      <c r="D9" s="4">
+        <v>18015.8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>25829</v>
+      </c>
+      <c r="D10" s="4">
+        <v>16530.560000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>24440</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12708.800000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>25378</v>
+      </c>
+      <c r="D12" s="4">
+        <v>14465.46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>25925</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17369.75</v>
+      </c>
+      <c r="E13" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
-        <v>23075</v>
-      </c>
-      <c r="D2" s="4">
-        <v>243</v>
-      </c>
-      <c r="E2" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>1.0530877573131094E-2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C14" s="6">
+        <v>20060</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7422.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
-        <v>24194</v>
-      </c>
-      <c r="D3" s="4">
-        <v>82</v>
-      </c>
-      <c r="E3" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.38927006695875E-3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C15" s="6">
+        <v>23875</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11937.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
-        <v>24674</v>
-      </c>
-      <c r="D4" s="4">
-        <v>76</v>
-      </c>
-      <c r="E4" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.0801653562454404E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C16" s="6">
+        <v>24907</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13449.78</v>
+      </c>
+      <c r="E16" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
-        <v>22122</v>
-      </c>
-      <c r="D5" s="4">
-        <v>74</v>
-      </c>
-      <c r="E5" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.345086339390652E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C17" s="6">
+        <v>22855</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8456.35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
-        <v>25061</v>
-      </c>
-      <c r="D6" s="4">
-        <v>159</v>
-      </c>
-      <c r="E6" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>6.3445193727305373E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C18" s="6">
+        <v>25330</v>
+      </c>
+      <c r="D18" s="4">
+        <v>19757.400000000001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
-        <v>24300</v>
-      </c>
-      <c r="D7" s="4">
-        <v>97</v>
-      </c>
-      <c r="E7" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.9917695473251028E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C19" s="6">
+        <v>24813</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13895.28</v>
+      </c>
+      <c r="E19" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
-        <v>25810</v>
-      </c>
-      <c r="D8" s="4">
-        <v>177</v>
-      </c>
-      <c r="E8" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>6.857807051530415E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C20" s="6">
+        <v>21220</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8700.1999999999989</v>
+      </c>
+      <c r="E20" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
-        <v>23705</v>
-      </c>
-      <c r="D9" s="4">
-        <v>90</v>
-      </c>
-      <c r="E9" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.7966673697532164E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C21" s="6">
+        <v>23197</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9510.7699999999986</v>
+      </c>
+      <c r="E21" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
-        <v>25829</v>
-      </c>
-      <c r="D10" s="4">
-        <v>562</v>
-      </c>
-      <c r="E10" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>2.1758488520655078E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C22" s="6">
+        <v>26043</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8333.76</v>
+      </c>
+      <c r="E22" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9">
-        <v>24440</v>
-      </c>
-      <c r="D11" s="4">
-        <v>97</v>
-      </c>
-      <c r="E11" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.9689034369885436E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C23" s="6">
+        <v>22728</v>
+      </c>
+      <c r="D23" s="4">
+        <v>12045.84</v>
+      </c>
+      <c r="E23" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
-        <v>25378</v>
-      </c>
-      <c r="D12" s="4">
-        <v>709</v>
-      </c>
-      <c r="E12" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>2.7937583733942783E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C24" s="6">
+        <v>24024</v>
+      </c>
+      <c r="D24" s="4">
+        <v>15615.6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
-        <v>25925</v>
-      </c>
-      <c r="D13" s="4">
-        <v>183</v>
-      </c>
-      <c r="E13" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>7.058823529411765E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>20060</v>
-      </c>
-      <c r="D14" s="4">
-        <v>106</v>
-      </c>
-      <c r="E14" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>5.2841475573280157E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11">
-        <v>23875</v>
-      </c>
-      <c r="D15" s="4">
-        <v>271</v>
-      </c>
-      <c r="E15" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>1.1350785340314137E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11">
-        <v>24907</v>
-      </c>
-      <c r="D16" s="4">
-        <v>101</v>
-      </c>
-      <c r="E16" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>4.0550849158871001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
-        <v>22855</v>
-      </c>
-      <c r="D17" s="4">
-        <v>75</v>
-      </c>
-      <c r="E17" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.2815576460293152E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11">
-        <v>25330</v>
-      </c>
-      <c r="D18" s="4">
-        <v>236</v>
-      </c>
-      <c r="E18" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>9.3170153967627317E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11">
-        <v>24813</v>
-      </c>
-      <c r="D19" s="4">
-        <v>169</v>
-      </c>
-      <c r="E19" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>6.8109458751460924E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11">
-        <v>21220</v>
-      </c>
-      <c r="D20" s="4">
-        <v>70</v>
-      </c>
-      <c r="E20" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.2987747408105561E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="11">
-        <v>23197</v>
-      </c>
-      <c r="D21" s="4">
-        <v>115</v>
-      </c>
-      <c r="E21" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>4.9575376126223215E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="11">
-        <v>26043</v>
-      </c>
-      <c r="D22" s="4">
-        <v>85</v>
-      </c>
-      <c r="E22" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>3.263832891755942E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <v>22728</v>
-      </c>
-      <c r="D23" s="4">
-        <v>264</v>
-      </c>
-      <c r="E23" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>1.1615628299894404E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="11">
-        <v>24024</v>
-      </c>
-      <c r="D24" s="4">
-        <v>112</v>
-      </c>
-      <c r="E24" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>4.662004662004662E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="C25" s="6">
         <v>23255</v>
       </c>
       <c r="D25" s="4">
+        <v>7674.1500000000005</v>
+      </c>
+      <c r="E25" s="3">
         <v>468</v>
-      </c>
-      <c r="E25" s="13">
-        <f>Table13[[#This Row],[Conversion]]/Table13[[#This Row],[Website_Visits]]</f>
-        <v>2.0124704364652763E-2</v>
       </c>
     </row>
   </sheetData>
